--- a/agile_artifacts/SprintProductLog.xlsx
+++ b/agile_artifacts/SprintProductLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\school_code\CST-247-Project\agile_artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910BE539-EBE0-4A16-BE76-24C530C4E7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9604FBE1-3096-4E75-A973-40715AFE7A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11385" xr2:uid="{8866F3F1-5DE4-42AB-826D-82D67BF29B9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26355" windowHeight="15600" xr2:uid="{8866F3F1-5DE4-42AB-826D-82D67BF29B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Sizing</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>As a user, I would like to play the minesweeper game created in CST-227 in a web brower.</t>
+  </si>
+  <si>
+    <t>User Story (Larger Story)</t>
+  </si>
+  <si>
+    <t>Task (Broken down user story)</t>
+  </si>
+  <si>
+    <t>As a techincal person responsible for ensuring user and data security, I would like to ensure that I have the ability to secure the game site.</t>
+  </si>
+  <si>
+    <t>As a user I would like the ability to save my current game and come back to it at a later time. I would also like to my stats from previous games to be tracked.</t>
+  </si>
+  <si>
+    <t>As a user I would like to see my game stats as a HTML based report.</t>
+  </si>
+  <si>
+    <t>As a user I would like to retrived my stats via a REST API in JSON format.</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>FR1</t>
+  </si>
+  <si>
+    <t>FR2</t>
+  </si>
+  <si>
+    <t>As a user I would like to be able to create an account, by supplying a username, email and password.</t>
+  </si>
+  <si>
+    <t>FR3</t>
+  </si>
+  <si>
+    <t>As a user I would like the ability to login to the game website.</t>
+  </si>
+  <si>
+    <t>FR4</t>
+  </si>
+  <si>
+    <t>FR5</t>
+  </si>
+  <si>
+    <t>FR6</t>
+  </si>
+  <si>
+    <t>FR7</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>Milestone 3  &amp; 4</t>
+  </si>
+  <si>
+    <t>Milestone 5</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +126,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +157,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,14 +499,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1D55D-F0C0-4D4A-BED7-2F05F7B7D26B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>